--- a/Documents/QA Documents/Quality Assurance Tests.xlsx
+++ b/Documents/QA Documents/Quality Assurance Tests.xlsx
@@ -5,17 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7\Downloads\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mirela\Documents\GitHub\Breeze\Documents\QA Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70479BFA-2889-48A1-81FE-55BE2AF1773A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1774319-7702-4D8B-A2B0-C2A513447539}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{A9921E45-D22D-4F0E-ACFF-6EE3A0892170}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{A9921E45-D22D-4F0E-ACFF-6EE3A0892170}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Suite 1" sheetId="3" r:id="rId1"/>
-    <sheet name="Test Suite 2" sheetId="8" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId3"/>
+    <sheet name="Login form" sheetId="3" r:id="rId1"/>
+    <sheet name="Resources" sheetId="8" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="76">
   <si>
     <t>ID</t>
   </si>
@@ -119,9 +118,6 @@
     <t>Entering data</t>
   </si>
   <si>
-    <t>Application accepts</t>
-  </si>
-  <si>
     <t>Login Form 01</t>
   </si>
   <si>
@@ -252,13 +248,19 @@
   </si>
   <si>
     <t>Ivailo Radev</t>
+  </si>
+  <si>
+    <t>Application accepts entered data</t>
+  </si>
+  <si>
+    <t>Application doesn't accept entered data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -303,15 +305,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -415,7 +408,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -461,7 +454,25 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -470,40 +481,16 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Добър" xfId="1" builtinId="26"/>
+    <cellStyle name="Нормален" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -524,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема на Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Оffice">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -564,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Оffice">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -670,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Оffice">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -823,80 +810,80 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G58" sqref="G58"/>
+    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="58.5703125" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="42.109375" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" customWidth="1"/>
+    <col min="6" max="6" width="58.5546875" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
-    <col min="8" max="8" width="12.140625" customWidth="1"/>
+    <col min="8" max="8" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13"/>
       <c r="B1" s="13"/>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C4" s="25" t="s">
+    <row r="4" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C4" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" s="19" t="s">
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C6" s="16" t="s">
         <v>0</v>
       </c>
@@ -907,15 +894,15 @@
         <v>6</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>7</v>
@@ -924,7 +911,7 @@
         <v>44307.851388888892</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="28" t="s">
         <v>5</v>
       </c>
@@ -935,10 +922,10 @@
         <v>8</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="28"/>
       <c r="D9" s="29"/>
       <c r="E9" s="16" t="s">
@@ -948,15 +935,15 @@
         <v>44307.852777777778</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="17" t="s">
         <v>10</v>
       </c>
@@ -976,18 +963,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="4">
         <v>1</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
+      <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -996,25 +981,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C14" s="25" t="s">
+    <row r="14" spans="1:11" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C14" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" s="19" t="s">
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C15" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C16" s="16" t="s">
         <v>0</v>
       </c>
@@ -1025,15 +1010,15 @@
         <v>6</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>7</v>
@@ -1042,23 +1027,23 @@
         <v>44307.868750000001</v>
       </c>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="22" t="s">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="21"/>
-      <c r="D19" s="23"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="27"/>
+      <c r="D19" s="20"/>
       <c r="E19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1066,15 +1051,15 @@
         <v>44307.870138888888</v>
       </c>
     </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="22"/>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="18" t="s">
         <v>10</v>
       </c>
@@ -1094,18 +1079,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="8">
         <v>1</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
+      <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -1114,25 +1097,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C24" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>0</v>
       </c>
@@ -1143,15 +1126,15 @@
         <v>6</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>7</v>
@@ -1160,23 +1143,23 @@
         <v>44307.87222222222</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="22" t="s">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="21"/>
-      <c r="D29" s="23"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="27"/>
+      <c r="D29" s="20"/>
       <c r="E29" s="16" t="s">
         <v>9</v>
       </c>
@@ -1184,15 +1167,15 @@
         <v>44307.874305555553</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="24"/>
-      <c r="H30" s="24"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="22"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="18" t="s">
         <v>10</v>
       </c>
@@ -1212,18 +1195,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="8">
         <v>1</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
+      <c r="E32" s="7"/>
       <c r="F32" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -1232,18 +1213,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="10">
         <v>4</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E33" s="11">
-        <v>0</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="E33" s="11"/>
       <c r="F33" s="9" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>13</v>
@@ -1252,25 +1231,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C35" s="25" t="s">
+    <row r="35" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C35" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
         <v>0</v>
       </c>
@@ -1281,15 +1260,15 @@
         <v>6</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>7</v>
@@ -1298,23 +1277,23 @@
         <v>44307.87222222222</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="22" t="s">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="21"/>
-      <c r="D40" s="23"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="27"/>
+      <c r="D40" s="20"/>
       <c r="E40" s="16" t="s">
         <v>9</v>
       </c>
@@ -1322,15 +1301,15 @@
         <v>44307.874305555553</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="24"/>
-      <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="18" t="s">
         <v>10</v>
       </c>
@@ -1350,18 +1329,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" s="8">
         <v>1</v>
       </c>
       <c r="D43" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E43" s="7">
-        <v>0</v>
-      </c>
+      <c r="E43" s="7"/>
       <c r="F43" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>13</v>
@@ -1370,25 +1347,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C45" s="25" t="s">
+    <row r="45" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C45" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="25"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="25"/>
-    </row>
-    <row r="46" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C46" s="19" t="s">
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
-      <c r="F46" s="19"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C47" s="16" t="s">
         <v>0</v>
       </c>
@@ -1399,15 +1376,15 @@
         <v>6</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>7</v>
@@ -1416,23 +1393,23 @@
         <v>44307.875</v>
       </c>
     </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D49" s="22" t="s">
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" s="19" t="s">
         <v>28</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="21"/>
-      <c r="D50" s="23"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="27"/>
+      <c r="D50" s="20"/>
       <c r="E50" s="16" t="s">
         <v>9</v>
       </c>
@@ -1440,15 +1417,15 @@
         <v>44307.87777777778</v>
       </c>
     </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+    </row>
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C52" s="18" t="s">
         <v>10</v>
       </c>
@@ -1468,18 +1445,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" s="8">
         <v>1</v>
       </c>
       <c r="D53" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E53" s="7">
-        <v>0</v>
-      </c>
+      <c r="E53" s="7"/>
       <c r="F53" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>13</v>
@@ -1488,25 +1463,25 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C55" s="25" t="s">
+    <row r="55" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C55" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D55" s="25"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="25"/>
-    </row>
-    <row r="56" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C56" s="19" t="s">
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+    </row>
+    <row r="56" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+    </row>
+    <row r="57" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C57" s="16" t="s">
         <v>0</v>
       </c>
@@ -1517,15 +1492,15 @@
         <v>6</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C58" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E58" s="16" t="s">
         <v>7</v>
@@ -1534,23 +1509,23 @@
         <v>44307.880555555559</v>
       </c>
     </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>37</v>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C59" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>36</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="21"/>
-      <c r="D60" s="23"/>
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="27"/>
+      <c r="D60" s="20"/>
       <c r="E60" s="16" t="s">
         <v>9</v>
       </c>
@@ -1558,15 +1533,15 @@
         <v>44307.884027777778</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="24"/>
-      <c r="H61" s="24"/>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="22"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="22"/>
+      <c r="F61" s="22"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="22"/>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C62" s="18" t="s">
         <v>10</v>
       </c>
@@ -1586,18 +1561,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C63" s="8">
         <v>1</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E63" s="7">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>13</v>
@@ -1608,6 +1581,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="C45:H45"/>
+    <mergeCell ref="C56:F56"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="D59:D60"/>
+    <mergeCell ref="C61:H61"/>
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="C51:H51"/>
+    <mergeCell ref="C55:H55"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C41:H41"/>
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C1:H3"/>
     <mergeCell ref="C30:H30"/>
@@ -1624,21 +1612,6 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C45:H45"/>
-    <mergeCell ref="C56:F56"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="D59:D60"/>
-    <mergeCell ref="C61:H61"/>
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="C51:H51"/>
-    <mergeCell ref="C55:H55"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1647,70 +1620,70 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFC9EC6F-ED23-484C-9FDD-733CA60A7542}">
-  <dimension ref="C1:H66"/>
+  <dimension ref="C1:H132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" customWidth="1"/>
-    <col min="5" max="5" width="25.85546875" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.109375" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" customWidth="1"/>
+    <col min="5" max="5" width="25.88671875" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-    </row>
-    <row r="2" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C2" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
+    <row r="1" spans="3:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C2" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C3" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C4" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>7</v>
@@ -1719,21 +1692,21 @@
         <v>44307.885416666664</v>
       </c>
     </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C6" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C7" s="28"/>
       <c r="D7" s="29"/>
       <c r="E7" s="16" t="s">
@@ -1743,15 +1716,15 @@
         <v>44307.888194444444</v>
       </c>
     </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C9" s="17" t="s">
         <v>10</v>
       </c>
@@ -1771,18 +1744,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C10" s="4">
         <v>1</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E10" s="6"/>
       <c r="F10" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>13</v>
@@ -1791,18 +1762,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C11" s="4">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E11" s="6"/>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>13</v>
@@ -1811,44 +1780,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
+    <row r="13" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C15" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C16" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>7</v>
@@ -1857,21 +1826,21 @@
         <v>44307.888888888891</v>
       </c>
     </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C17" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D17" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="28"/>
       <c r="D18" s="29"/>
       <c r="E18" s="16" t="s">
@@ -1881,15 +1850,15 @@
         <v>44307.890972222223</v>
       </c>
     </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C20" s="17" t="s">
         <v>10</v>
       </c>
@@ -1909,18 +1878,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E21" s="6"/>
       <c r="F21" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>13</v>
@@ -1929,18 +1896,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C22" s="4">
         <v>2</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E22" s="6"/>
       <c r="F22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>13</v>
@@ -1949,44 +1914,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C26" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C27" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>7</v>
@@ -1995,21 +1960,21 @@
         <v>44307.89166666667</v>
       </c>
     </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C28" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C29" s="28"/>
       <c r="D29" s="29"/>
       <c r="E29" s="16" t="s">
@@ -2019,15 +1984,15 @@
         <v>44307.895833333336</v>
       </c>
     </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C31" s="17" t="s">
         <v>10</v>
       </c>
@@ -2047,18 +2012,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C32" s="4">
         <v>1</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E32" s="6"/>
       <c r="F32" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>13</v>
@@ -2067,18 +2030,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C33" s="4">
         <v>2</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E33" s="6"/>
       <c r="F33" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>13</v>
@@ -2087,44 +2048,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C35" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
+    <row r="35" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C35" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="23"/>
+      <c r="H35" s="23"/>
+    </row>
+    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D36" s="22"/>
+      <c r="E36" s="22"/>
+      <c r="F36" s="22"/>
+    </row>
+    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C37" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E37" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C38" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E38" s="16" t="s">
         <v>7</v>
@@ -2133,21 +2094,21 @@
         <v>44307.897222222222</v>
       </c>
     </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C39" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D39" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E39" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C40" s="28"/>
       <c r="D40" s="29"/>
       <c r="E40" s="16" t="s">
@@ -2157,15 +2118,15 @@
         <v>44307.899305555555</v>
       </c>
     </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="25"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="25"/>
+      <c r="F41" s="25"/>
+      <c r="G41" s="25"/>
+      <c r="H41" s="25"/>
+    </row>
+    <row r="42" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C42" s="17" t="s">
         <v>10</v>
       </c>
@@ -2185,18 +2146,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C43" s="4">
         <v>1</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E43" s="6"/>
       <c r="F43" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>13</v>
@@ -2205,18 +2164,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C44" s="4">
         <v>2</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E44" s="6"/>
       <c r="F44" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>13</v>
@@ -2225,44 +2182,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C46" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="19" t="s">
+    <row r="46" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C46" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D47" s="22"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+    </row>
+    <row r="48" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C48" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C49" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E49" s="16" t="s">
         <v>7</v>
@@ -2271,21 +2228,21 @@
         <v>44307.901388888888</v>
       </c>
     </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C50" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E50" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C51" s="28"/>
       <c r="D51" s="29"/>
       <c r="E51" s="16" t="s">
@@ -2295,15 +2252,15 @@
         <v>44307.904166666667</v>
       </c>
     </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C52" s="25"/>
+      <c r="D52" s="25"/>
+      <c r="E52" s="25"/>
+      <c r="F52" s="25"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="25"/>
+    </row>
+    <row r="53" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C53" s="17" t="s">
         <v>10</v>
       </c>
@@ -2323,18 +2280,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C54" s="4">
         <v>1</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>13</v>
@@ -2343,18 +2298,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C55" s="4">
         <v>2</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E55" s="6"/>
       <c r="F55" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>13</v>
@@ -2363,44 +2316,44 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C57" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="19" t="s">
+    <row r="57" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C57" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+    </row>
+    <row r="58" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+    </row>
+    <row r="59" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C59" s="16" t="s">
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E59" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C60" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60" s="16" t="s">
         <v>7</v>
@@ -2409,21 +2362,21 @@
         <v>44307.90625</v>
       </c>
     </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C61" s="28" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E61" s="16" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C62" s="28"/>
       <c r="D62" s="29"/>
       <c r="E62" s="16" t="s">
@@ -2433,15 +2386,15 @@
         <v>44307.908333333333</v>
       </c>
     </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="25"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+    </row>
+    <row r="64" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
         <v>10</v>
       </c>
@@ -2461,18 +2414,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C65" s="4">
         <v>1</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E65" s="6"/>
       <c r="F65" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>13</v>
@@ -2481,18 +2432,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C66" s="4">
         <v>2</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="E66" s="6"/>
       <c r="F66" s="7" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>13</v>
@@ -2501,13 +2450,855 @@
         <v>17</v>
       </c>
     </row>
+    <row r="68" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C68" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D68" s="23"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="23"/>
+      <c r="H68" s="23"/>
+    </row>
+    <row r="69" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C69" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="22"/>
+      <c r="E69" s="22"/>
+      <c r="F69" s="22"/>
+    </row>
+    <row r="70" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C70" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C71" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" s="14">
+        <v>44308.59375</v>
+      </c>
+    </row>
+    <row r="72" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="28"/>
+      <c r="D73" s="29"/>
+      <c r="E73" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F73" s="15">
+        <v>44308.597222222219</v>
+      </c>
+    </row>
+    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="25"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+    </row>
+    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F75" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H75" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="4">
+        <v>1</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E76" s="6"/>
+      <c r="F76" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="4">
+        <v>2</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E77" s="6"/>
+      <c r="F77" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C79" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" s="23"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="23"/>
+      <c r="G79" s="23"/>
+      <c r="H79" s="23"/>
+    </row>
+    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="22"/>
+      <c r="E80" s="22"/>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="14">
+        <v>44308.598611111112</v>
+      </c>
+    </row>
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C84" s="28"/>
+      <c r="D84" s="29"/>
+      <c r="E84" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F84" s="15">
+        <v>44308.600694444445</v>
+      </c>
+    </row>
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C85" s="25"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+    </row>
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C86" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C87" s="4">
+        <v>1</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E87" s="6"/>
+      <c r="F87" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G87" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="4">
+        <v>2</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E88" s="6"/>
+      <c r="F88" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C90" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D90" s="23"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="23"/>
+      <c r="G90" s="23"/>
+      <c r="H90" s="23"/>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D91" s="22"/>
+      <c r="E91" s="22"/>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F93" s="14">
+        <v>44308.602083333331</v>
+      </c>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D94" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="28"/>
+      <c r="D95" s="29"/>
+      <c r="E95" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F95" s="15">
+        <v>44308.603472222225</v>
+      </c>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="25"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+    </row>
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E97" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H97" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="4">
+        <v>1</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E98" s="6"/>
+      <c r="F98" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C99" s="4">
+        <v>2</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E99" s="6"/>
+      <c r="F99" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G99" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="101" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C101" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D101" s="23"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="23"/>
+      <c r="H101" s="23"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D102" s="22"/>
+      <c r="E102" s="22"/>
+      <c r="F102" s="22"/>
+    </row>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F104" s="14">
+        <v>44308.604861111111</v>
+      </c>
+    </row>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="28"/>
+      <c r="D106" s="29"/>
+      <c r="E106" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F106" s="15">
+        <v>44308.606249999997</v>
+      </c>
+    </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="25"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C108" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F108" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H108" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C109" s="4">
+        <v>1</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E109" s="6"/>
+      <c r="F109" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C110" s="4">
+        <v>2</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E110" s="6"/>
+      <c r="F110" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="112" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C112" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D112" s="23"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="23"/>
+      <c r="G112" s="23"/>
+      <c r="H112" s="23"/>
+    </row>
+    <row r="113" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C113" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113" s="22"/>
+      <c r="E113" s="22"/>
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C114" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C115" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F115" s="14">
+        <v>44308.60833333333</v>
+      </c>
+    </row>
+    <row r="116" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C116" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D116" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C117" s="28"/>
+      <c r="D117" s="29"/>
+      <c r="E117" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F117" s="15">
+        <v>44308.61041666667</v>
+      </c>
+    </row>
+    <row r="118" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C118" s="25"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+    </row>
+    <row r="119" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C119" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E119" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F119" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C120" s="4">
+        <v>1</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E120" s="6"/>
+      <c r="F120" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G120" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="121" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C121" s="4">
+        <v>2</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E121" s="6"/>
+      <c r="F121" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G121" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="123" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C123" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="D123" s="23"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="23"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="23"/>
+    </row>
+    <row r="124" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C124" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="22"/>
+      <c r="E124" s="22"/>
+      <c r="F124" s="22"/>
+    </row>
+    <row r="125" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C125" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C126" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F126" s="14">
+        <v>44308.612500000003</v>
+      </c>
+    </row>
+    <row r="127" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C127" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C128" s="28"/>
+      <c r="D128" s="29"/>
+      <c r="E128" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F128" s="15">
+        <v>44308.614583333336</v>
+      </c>
+    </row>
+    <row r="129" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C129" s="25"/>
+      <c r="D129" s="25"/>
+      <c r="E129" s="25"/>
+      <c r="F129" s="25"/>
+      <c r="G129" s="25"/>
+      <c r="H129" s="25"/>
+    </row>
+    <row r="130" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C130" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E130" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="F130" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G130" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H130" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C131" s="4">
+        <v>1</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E131" s="6"/>
+      <c r="F131" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H131" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="132" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C132" s="4">
+        <v>2</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E132" s="6"/>
+      <c r="F132" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G132" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H132" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+  <mergeCells count="61">
+    <mergeCell ref="C68:H68"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="C74:H74"/>
+    <mergeCell ref="C79:H79"/>
+    <mergeCell ref="C80:F80"/>
+    <mergeCell ref="C83:C84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="C85:H85"/>
+    <mergeCell ref="C90:H90"/>
+    <mergeCell ref="C91:F91"/>
+    <mergeCell ref="C94:C95"/>
+    <mergeCell ref="D94:D95"/>
+    <mergeCell ref="C123:H123"/>
+    <mergeCell ref="C124:F124"/>
+    <mergeCell ref="C127:C128"/>
+    <mergeCell ref="D127:D128"/>
+    <mergeCell ref="C129:H129"/>
+    <mergeCell ref="C112:H112"/>
+    <mergeCell ref="C113:F113"/>
+    <mergeCell ref="C116:C117"/>
+    <mergeCell ref="D116:D117"/>
+    <mergeCell ref="C118:H118"/>
+    <mergeCell ref="C101:H101"/>
+    <mergeCell ref="C102:F102"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="C107:H107"/>
+    <mergeCell ref="C96:H96"/>
+    <mergeCell ref="C63:H63"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="C41:H41"/>
+    <mergeCell ref="C46:H46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C58:F58"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="D61:D62"/>
     <mergeCell ref="C8:H8"/>
     <mergeCell ref="C36:F36"/>
     <mergeCell ref="C13:H13"/>
@@ -2521,915 +3312,12 @@
     <mergeCell ref="D28:D29"/>
     <mergeCell ref="C30:H30"/>
     <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D106DA49-5FC9-4FFA-958F-2FF1BF55EF24}">
-  <dimension ref="C1:H66"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-    </row>
-    <row r="2" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C2" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-    </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C4" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="14">
-        <v>44308.59375</v>
-      </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="28"/>
-      <c r="D7" s="29"/>
-      <c r="E7" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="15">
-        <v>44308.597222222219</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="27"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="4">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C13" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="14">
-        <v>44308.598611111112</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C17" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="15">
-        <v>44308.600694444445</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C20" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H20" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C21" s="4">
-        <v>1</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C22" s="4">
-        <v>2</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C24" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C25" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C26" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C27" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="14">
-        <v>44308.602083333331</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C28" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C29" s="28"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="15">
-        <v>44308.603472222225</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-    </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C31" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H31" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C32" s="4">
-        <v>1</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="4">
-        <v>2</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C35" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
-      <c r="G35" s="25"/>
-      <c r="H35" s="25"/>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C38" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F38" s="14">
-        <v>44308.604861111111</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C39" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C40" s="28"/>
-      <c r="D40" s="29"/>
-      <c r="E40" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" s="15">
-        <v>44308.606249999997</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-    </row>
-    <row r="42" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C42" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H42" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C43" s="4">
-        <v>1</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="6">
-        <v>0</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H43" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C44" s="4">
-        <v>2</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="6">
-        <v>0</v>
-      </c>
-      <c r="F44" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C46" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D46" s="25"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="25"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="25"/>
-    </row>
-    <row r="47" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C47" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
-      <c r="F47" s="24"/>
-    </row>
-    <row r="48" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C48" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C49" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D49" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F49" s="14">
-        <v>44308.60833333333</v>
-      </c>
-    </row>
-    <row r="50" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C50" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D50" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C51" s="28"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="15">
-        <v>44308.61041666667</v>
-      </c>
-    </row>
-    <row r="52" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C52" s="27"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-    </row>
-    <row r="53" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C53" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E53" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C54" s="4">
-        <v>1</v>
-      </c>
-      <c r="D54" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E54" s="6">
-        <v>0</v>
-      </c>
-      <c r="F54" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H54" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="55" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C55" s="4">
-        <v>2</v>
-      </c>
-      <c r="D55" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E55" s="6">
-        <v>0</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H55" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="57" spans="3:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="C57" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D57" s="25"/>
-      <c r="E57" s="25"/>
-      <c r="F57" s="25"/>
-      <c r="G57" s="25"/>
-      <c r="H57" s="25"/>
-    </row>
-    <row r="58" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C58" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-    </row>
-    <row r="59" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C59" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E59" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="60" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C60" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="F60" s="14">
-        <v>44308.612500000003</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C61" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F61" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C62" s="28"/>
-      <c r="D62" s="29"/>
-      <c r="E62" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="F62" s="15">
-        <v>44308.614583333336</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C63" s="27"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="27"/>
-      <c r="G63" s="27"/>
-      <c r="H63" s="27"/>
-    </row>
-    <row r="64" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C64" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E64" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H64" s="18" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C65" s="4">
-        <v>1</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E65" s="6">
-        <v>0</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="66" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C66" s="4">
-        <v>2</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E66" s="6">
-        <v>0</v>
-      </c>
-      <c r="F66" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G66" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="31">
-    <mergeCell ref="C52:H52"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C58:F58"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="C63:H63"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
-    <mergeCell ref="C41:H41"/>
-    <mergeCell ref="C46:H46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="C30:H30"/>
-    <mergeCell ref="C35:H35"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="C24:H24"/>
+    <mergeCell ref="C1:H1"/>
     <mergeCell ref="C2:H2"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="D6:D7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>